--- a/Datos/ckan_muni_2019-14.xlsx
+++ b/Datos/ckan_muni_2019-14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C81CDB-895D-4DD4-B6AD-EF86AC5397F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD43D6-0342-48EC-B228-14441D91D31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6562,8 +6562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE1771"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="N82" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27:Y103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10544,6 +10544,9 @@
       <c r="C48" t="s">
         <v>256</v>
       </c>
+      <c r="Y48">
+        <v>2019</v>
+      </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
